--- a/Project/results/results.xlsx
+++ b/Project/results/results.xlsx
@@ -1211,12 +1211,12 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Non Aadhar</t>
+          <t>Non Aadhaar</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Non Aadhar</t>
+          <t>Non-Aadhaar</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
